--- a/05 테스팅/테스트케이스_3_THREEGO.xlsx
+++ b/05 테스팅/테스트케이스_3_THREEGO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMSUNG\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMSUNG\git\18-1_3_THREEGO_Doc\05 테스팅\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="248">
   <si>
     <t>TestCase ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -817,10 +817,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>과목명 : (공란) 
 마감일 : 5월 24일
 실제 마감일 : 5월 25일
@@ -892,14 +888,6 @@
   </si>
   <si>
     <t>중복된 To do List가 있다는 오류메시지가 출력된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>과목명 : 소프트웨어공학
-마감일 : 5월27일
-실제 마감일 : 5월 27일
-상태 : 진행 중
-What to do : 요구사항 명세서 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1174,6 +1162,39 @@
   <si>
     <t>UC07
 UC19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목명 : 소프트웨어공학
+마감일 : 5월30일
+실제 마감일 : 5월 30일
+상태 : 진행 중
+What to do : 요구사항 명세서 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김우빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC0013,TC0014,TC00
+16,TC0017,TC0026 Pa
+ss로 변경
+추가 결함 발견으로
+TC-0007 fail로 변경
+Pass 및 fail 수 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1316</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1548,14 +1569,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1839,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1864,12 +1885,12 @@
     </row>
     <row r="5" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="1:4" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="16"/>
@@ -1896,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>148</v>
@@ -1910,7 +1931,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>148</v>
@@ -1924,7 +1945,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>148</v>
@@ -1938,17 +1959,25 @@
         <v>4</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="5"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="6"/>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="A13" s="25">
+        <v>43249</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
@@ -2055,8 +2084,8 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2092,7 +2121,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -2100,7 +2129,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2137,10 +2166,10 @@
     </row>
     <row r="8" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B8" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>227</v>
+        <v>233</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>225</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>20</v>
@@ -2167,9 +2196,9 @@
     </row>
     <row r="9" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="B9" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="C9" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" s="26" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -2197,9 +2226,9 @@
     </row>
     <row r="10" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B10" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="C10" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="19" t="s">
@@ -2227,9 +2256,9 @@
     </row>
     <row r="11" spans="1:11" ht="87" x14ac:dyDescent="0.4">
       <c r="B11" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="C11" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2257,9 +2286,9 @@
     </row>
     <row r="12" spans="1:11" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="B12" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="C12" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12" s="26" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="19" t="s">
@@ -2269,7 +2298,7 @@
         <v>38</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>44</v>
@@ -2284,14 +2313,14 @@
         <v>43246</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="87" x14ac:dyDescent="0.4">
       <c r="B13" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="C13" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" s="26" t="s">
         <v>46</v>
       </c>
       <c r="D13" s="19" t="s">
@@ -2301,7 +2330,7 @@
         <v>38</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>40</v>
@@ -2316,21 +2345,21 @@
         <v>43246</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="87" x14ac:dyDescent="0.4">
       <c r="B14" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="C14" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>51</v>
@@ -2342,28 +2371,30 @@
         <v>53</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="J14" s="20">
-        <v>43246</v>
-      </c>
-      <c r="K14" s="1"/>
+        <v>43249</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="B15" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="C15" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="26" t="s">
         <v>54</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>55</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G15" s="19" t="s">
         <v>56</v>
@@ -2378,24 +2409,24 @@
         <v>43246</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="87" x14ac:dyDescent="0.4">
       <c r="B16" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="C16" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>57</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>59</v>
@@ -2410,27 +2441,27 @@
         <v>43246</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B17" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F17" s="19" t="s">
         <v>63</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H17" s="19" t="s">
         <v>64</v>
@@ -2445,22 +2476,22 @@
     </row>
     <row r="18" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B18" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="C18" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="C18" s="26" t="s">
         <v>65</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>66</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F18" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="G18" s="19" t="s">
         <v>178</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>179</v>
       </c>
       <c r="H18" s="19" t="s">
         <v>67</v>
@@ -2475,9 +2506,9 @@
     </row>
     <row r="19" spans="2:11" ht="121.8" x14ac:dyDescent="0.4">
       <c r="B19" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="C19" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="C19" s="26" t="s">
         <v>69</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -2487,7 +2518,7 @@
         <v>38</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>71</v>
@@ -2507,7 +2538,7 @@
       <c r="B20" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="26" t="s">
         <v>73</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -2517,7 +2548,7 @@
         <v>38</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G20" s="19" t="s">
         <v>75</v>
@@ -2526,20 +2557,20 @@
         <v>45</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="J20" s="20">
-        <v>43246</v>
+        <v>43249</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="121.8" x14ac:dyDescent="0.4">
       <c r="B21" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="C21" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="C21" s="26" t="s">
         <v>76</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -2549,7 +2580,7 @@
         <v>38</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G21" s="19" t="s">
         <v>71</v>
@@ -2558,20 +2589,20 @@
         <v>48</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="J21" s="20">
-        <v>43246</v>
+        <v>43249</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="121.8" x14ac:dyDescent="0.4">
       <c r="B22" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="C22" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="C22" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -2593,17 +2624,17 @@
         <v>171</v>
       </c>
       <c r="J22" s="20">
-        <v>43246</v>
+        <v>43249</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="156.6" x14ac:dyDescent="0.4">
       <c r="B23" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="27" t="s">
         <v>84</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -2613,7 +2644,7 @@
         <v>81</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G23" s="19" t="s">
         <v>86</v>
@@ -2622,20 +2653,20 @@
         <v>45</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>172</v>
+        <v>25</v>
       </c>
       <c r="J23" s="20">
-        <v>43246</v>
+        <v>43249</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="27" t="s">
         <v>87</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -2654,20 +2685,20 @@
         <v>60</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>171</v>
+        <v>242</v>
       </c>
       <c r="J24" s="20">
-        <v>43246</v>
+        <v>43249</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B25" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="C25" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="C25" s="27" t="s">
         <v>89</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -2680,7 +2711,7 @@
         <v>91</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>92</v>
@@ -2695,9 +2726,9 @@
     </row>
     <row r="26" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B26" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="C26" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="C26" s="27" t="s">
         <v>93</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -2725,9 +2756,9 @@
     </row>
     <row r="27" spans="2:11" ht="156.6" x14ac:dyDescent="0.4">
       <c r="B27" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="C27" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="C27" s="27" t="s">
         <v>96</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -2757,7 +2788,7 @@
       <c r="B28" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="27" t="s">
         <v>98</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -2787,7 +2818,7 @@
       <c r="B29" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="27" t="s">
         <v>103</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -2817,7 +2848,7 @@
       <c r="B30" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="27" t="s">
         <v>108</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -2847,7 +2878,7 @@
       <c r="B31" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="27" t="s">
         <v>113</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -2877,7 +2908,7 @@
       <c r="B32" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="27" t="s">
         <v>118</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -2905,9 +2936,9 @@
     </row>
     <row r="33" spans="2:11" ht="87" x14ac:dyDescent="0.4">
       <c r="B33" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="C33" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="C33" s="27" t="s">
         <v>122</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -2917,7 +2948,7 @@
         <v>124</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>186</v>
+        <v>244</v>
       </c>
       <c r="G33" s="19" t="s">
         <v>125</v>
@@ -2926,20 +2957,20 @@
         <v>126</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c r="J33" s="20">
-        <v>43246</v>
+        <v>43249</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="2:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B34" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="C34" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="C34" s="27" t="s">
         <v>127</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -2967,9 +2998,9 @@
     </row>
     <row r="35" spans="2:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B35" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="C35" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="C35" s="27" t="s">
         <v>131</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -2999,7 +3030,7 @@
       <c r="B36" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="27" t="s">
         <v>136</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -3029,7 +3060,7 @@
       <c r="B37" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="27" t="s">
         <v>142</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -3057,16 +3088,16 @@
     </row>
     <row r="38" spans="2:11" ht="97.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C38" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="E38" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F38" s="19" t="s">
         <v>39</v>
@@ -3075,10 +3106,10 @@
         <v>40</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J38" s="20">
         <v>43246</v>
@@ -3087,28 +3118,28 @@
     </row>
     <row r="39" spans="2:11" ht="97.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>204</v>
+        <v>199</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>202</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F39" s="19" t="s">
         <v>39</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J39" s="20">
         <v>43246</v>
@@ -3117,16 +3148,16 @@
     </row>
     <row r="40" spans="2:11" ht="97.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C40" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="E40" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F40" s="19" t="s">
         <v>154</v>
@@ -3135,10 +3166,10 @@
         <v>71</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J40" s="20">
         <v>43246</v>
@@ -3147,28 +3178,28 @@
     </row>
     <row r="41" spans="2:11" ht="112.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>206</v>
+        <v>200</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>204</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F41" s="19" t="s">
         <v>154</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J41" s="20">
         <v>43246</v>
